--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2622982.684863743</v>
+        <v>-2625550.065642135</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>365.9974114868646</v>
+        <v>365.9974114868648</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>348.5364615943918</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>337.9466114440672</v>
       </c>
       <c r="E11" t="n">
-        <v>365.1939398956458</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>390.1396155650954</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>394.811272596338</v>
+        <v>394.8112725963382</v>
       </c>
       <c r="H11" t="n">
-        <v>284.2821223857894</v>
+        <v>284.2821223857896</v>
       </c>
       <c r="I11" t="n">
-        <v>48.97348249585447</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>189.9217548036177</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>52.40168988614455</v>
       </c>
       <c r="V11" t="n">
-        <v>77.16050870518744</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>332.5045385407972</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>369.5015084794376</v>
+        <v>369.5015084794378</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>163.0955500053215</v>
       </c>
       <c r="C13" t="n">
-        <v>150.5103909220118</v>
+        <v>150.510390922012</v>
       </c>
       <c r="D13" t="n">
-        <v>131.8790428415963</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>149.5701698681882</v>
+        <v>149.5701698681884</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>56.77363055182209</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.82114224295782</v>
       </c>
       <c r="S13" t="n">
-        <v>88.07574402059693</v>
+        <v>177.9260301851217</v>
       </c>
       <c r="T13" t="n">
-        <v>204.0122658205959</v>
+        <v>204.0122658205961</v>
       </c>
       <c r="U13" t="n">
-        <v>269.4907239445846</v>
+        <v>269.4907239445848</v>
       </c>
       <c r="V13" t="n">
-        <v>235.401213147212</v>
+        <v>235.4012131472122</v>
       </c>
       <c r="W13" t="n">
-        <v>269.786568159975</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.9732252124213</v>
       </c>
       <c r="Y13" t="n">
-        <v>201.8482231754788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>213.5060897741286</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
@@ -1664,13 +1664,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>238.8274536812084</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353748</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429018</v>
       </c>
       <c r="D17" t="n">
         <v>256.9983213925781</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>133.1067657762829</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C19" t="n">
         <v>69.56210087052295</v>
@@ -2017,10 +2017,10 @@
         <v>68.34108803092334</v>
       </c>
       <c r="H19" t="n">
-        <v>47.0702946862159</v>
+        <v>99.36210032693369</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333702</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U19" t="n">
         <v>188.527117977508</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W19" t="n">
         <v>188.8382781084861</v>
       </c>
       <c r="X19" t="n">
-        <v>128.0249351609323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="20">
@@ -2087,13 +2087,13 @@
         <v>256.9983213925781</v>
       </c>
       <c r="E20" t="n">
-        <v>284.2456498441554</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F20" t="n">
         <v>309.1913255136066</v>
       </c>
       <c r="G20" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253479</v>
       </c>
       <c r="H20" t="n">
         <v>196.9230441592156</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,10 +2242,10 @@
         <v>69.56210087052295</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846429</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>47.73632779482637</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.20693826439323</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333702</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U22" t="n">
-        <v>188.527117977508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>205.412428918174</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X22" t="n">
         <v>128.0249351609323</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.1472599538324</v>
+        <v>124.3541982182255</v>
       </c>
       <c r="C25" t="n">
         <v>69.56210087052294</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E25" t="n">
         <v>48.74924241846428</v>
@@ -2491,10 +2491,10 @@
         <v>68.34108803092333</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>43.53923808265961</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>92.084305103337</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U25" t="n">
         <v>188.527117977508</v>
       </c>
       <c r="V25" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>301.7855516119917</v>
+        <v>301.7855516119915</v>
       </c>
       <c r="C26" t="n">
-        <v>284.3246017195187</v>
+        <v>284.3246017195185</v>
       </c>
       <c r="D26" t="n">
-        <v>273.7347515691941</v>
+        <v>273.7347515691939</v>
       </c>
       <c r="E26" t="n">
-        <v>300.9820800207729</v>
+        <v>300.9820800207727</v>
       </c>
       <c r="F26" t="n">
-        <v>325.9277556902226</v>
+        <v>325.9277556902223</v>
       </c>
       <c r="G26" t="n">
-        <v>329.9734356019646</v>
+        <v>329.9734356019644</v>
       </c>
       <c r="H26" t="n">
-        <v>213.6594743358316</v>
+        <v>213.6594743358314</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>28.23947173668697</v>
+        <v>28.23947173668674</v>
       </c>
       <c r="T26" t="n">
-        <v>122.9696800881313</v>
+        <v>122.969680088131</v>
       </c>
       <c r="U26" t="n">
-        <v>170.0468819074131</v>
+        <v>170.0468819074129</v>
       </c>
       <c r="V26" t="n">
-        <v>246.803968418646</v>
+        <v>246.8039684186458</v>
       </c>
       <c r="W26" t="n">
-        <v>268.2926786659241</v>
+        <v>268.2926786659239</v>
       </c>
       <c r="X26" t="n">
-        <v>288.7828106269802</v>
+        <v>288.7828106269799</v>
       </c>
       <c r="Y26" t="n">
-        <v>305.2896486045647</v>
+        <v>305.2896486045645</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247731</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.88369013044843</v>
+        <v>98.8836901304482</v>
       </c>
       <c r="C28" t="n">
-        <v>86.29853104713897</v>
+        <v>86.29853104713874</v>
       </c>
       <c r="D28" t="n">
-        <v>67.66718296672349</v>
+        <v>67.66718296672326</v>
       </c>
       <c r="E28" t="n">
-        <v>65.4856725950803</v>
+        <v>65.48567259508008</v>
       </c>
       <c r="F28" t="n">
-        <v>64.47275797144238</v>
+        <v>77.82398159574848</v>
       </c>
       <c r="G28" t="n">
-        <v>85.07751820753936</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>63.80672486283191</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>15.40413035834923</v>
+        <v>15.404130358349</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.983862618558462</v>
+        <v>7.983862618558234</v>
       </c>
       <c r="S28" t="n">
-        <v>108.820735279953</v>
+        <v>108.8207352799528</v>
       </c>
       <c r="T28" t="n">
-        <v>138.6006592246803</v>
+        <v>138.6006592246801</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>205.2635481541238</v>
       </c>
       <c r="V28" t="n">
-        <v>171.1893532723391</v>
+        <v>171.1893532723389</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>205.5747082851019</v>
       </c>
       <c r="X28" t="n">
-        <v>158.1125889618515</v>
+        <v>144.7613653375481</v>
       </c>
       <c r="Y28" t="n">
-        <v>137.6363633006059</v>
+        <v>137.6363633006057</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>332.0242580539682</v>
+        <v>332.0242580539683</v>
       </c>
       <c r="C29" t="n">
         <v>314.5633081614952</v>
@@ -2798,7 +2798,7 @@
         <v>303.9734580111706</v>
       </c>
       <c r="E29" t="n">
-        <v>331.2207864627494</v>
+        <v>331.2207864627495</v>
       </c>
       <c r="F29" t="n">
         <v>356.1664621321991</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.47817817866346</v>
+        <v>58.47817817866348</v>
       </c>
       <c r="T29" t="n">
         <v>153.2083865301078</v>
@@ -2852,7 +2852,7 @@
         <v>277.0426748606226</v>
       </c>
       <c r="W29" t="n">
-        <v>298.5313851079006</v>
+        <v>298.5313851079007</v>
       </c>
       <c r="X29" t="n">
         <v>319.0215170689567</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>129.1223965724249</v>
+        <v>129.122396572425</v>
       </c>
       <c r="C31" t="n">
         <v>116.5372374891155</v>
       </c>
       <c r="D31" t="n">
-        <v>97.90588940870001</v>
+        <v>97.90588940870002</v>
       </c>
       <c r="E31" t="n">
-        <v>95.72437903705682</v>
+        <v>95.72437903705683</v>
       </c>
       <c r="F31" t="n">
-        <v>94.71146441341889</v>
+        <v>94.71146441341891</v>
       </c>
       <c r="G31" t="n">
         <v>115.3162246495159</v>
       </c>
       <c r="H31" t="n">
-        <v>94.04543130480843</v>
+        <v>94.04543130480845</v>
       </c>
       <c r="I31" t="n">
-        <v>45.64283680032573</v>
+        <v>45.64283680032576</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>38.22256906053497</v>
+        <v>38.22256906053499</v>
       </c>
       <c r="S31" t="n">
-        <v>139.0594417219295</v>
+        <v>139.0594417219296</v>
       </c>
       <c r="T31" t="n">
-        <v>168.8393656666568</v>
+        <v>168.8393656666569</v>
       </c>
       <c r="U31" t="n">
         <v>235.5022545961005</v>
@@ -3016,7 +3016,7 @@
         <v>175.0000717795248</v>
       </c>
       <c r="Y31" t="n">
-        <v>167.8750697425824</v>
+        <v>167.8750697425825</v>
       </c>
     </row>
     <row r="32">
@@ -3029,22 +3029,22 @@
         <v>332.0242580539683</v>
       </c>
       <c r="C32" t="n">
-        <v>314.5633081614953</v>
+        <v>314.5633081614952</v>
       </c>
       <c r="D32" t="n">
-        <v>303.9734580111707</v>
+        <v>303.9734580111706</v>
       </c>
       <c r="E32" t="n">
         <v>331.2207864627495</v>
       </c>
       <c r="F32" t="n">
-        <v>356.1664621321992</v>
+        <v>356.1664621321991</v>
       </c>
       <c r="G32" t="n">
-        <v>360.2121420439412</v>
+        <v>360.2121420439411</v>
       </c>
       <c r="H32" t="n">
-        <v>243.8981807778082</v>
+        <v>243.8981807778081</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.47817817866354</v>
+        <v>58.4781781786635</v>
       </c>
       <c r="T32" t="n">
-        <v>153.2083865301079</v>
+        <v>153.2083865301078</v>
       </c>
       <c r="U32" t="n">
-        <v>200.2855883493897</v>
+        <v>200.2855883493896</v>
       </c>
       <c r="V32" t="n">
         <v>277.0426748606226</v>
@@ -3092,7 +3092,7 @@
         <v>298.5313851079007</v>
       </c>
       <c r="X32" t="n">
-        <v>319.0215170689568</v>
+        <v>319.0215170689567</v>
       </c>
       <c r="Y32" t="n">
         <v>335.5283550465413</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247762</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>129.122396572425</v>
       </c>
       <c r="C34" t="n">
-        <v>116.5372374891156</v>
+        <v>116.5372374891155</v>
       </c>
       <c r="D34" t="n">
-        <v>97.90588940870008</v>
+        <v>97.90588940870002</v>
       </c>
       <c r="E34" t="n">
-        <v>95.72437903705689</v>
+        <v>95.72437903705683</v>
       </c>
       <c r="F34" t="n">
-        <v>94.71146441341897</v>
+        <v>94.71146441341891</v>
       </c>
       <c r="G34" t="n">
         <v>115.3162246495159</v>
       </c>
       <c r="H34" t="n">
-        <v>94.0454313048085</v>
+        <v>94.04543130480845</v>
       </c>
       <c r="I34" t="n">
-        <v>45.64283680032582</v>
+        <v>45.64283680032576</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>38.22256906053505</v>
+        <v>38.22256906053499</v>
       </c>
       <c r="S34" t="n">
         <v>139.0594417219296</v>
@@ -3241,7 +3241,7 @@
         <v>168.8393656666569</v>
       </c>
       <c r="U34" t="n">
-        <v>235.5022545961006</v>
+        <v>235.5022545961005</v>
       </c>
       <c r="V34" t="n">
         <v>201.4280597143157</v>
@@ -3250,7 +3250,7 @@
         <v>235.8134147270787</v>
       </c>
       <c r="X34" t="n">
-        <v>175.0000717795249</v>
+        <v>175.0000717795248</v>
       </c>
       <c r="Y34" t="n">
         <v>167.8750697425825</v>
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3323,13 +3323,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>98.6958336172778</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621582</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333693</v>
+        <v>135.6235431859974</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3560,13 +3560,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E40" t="n">
-        <v>90.95618068285836</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482628</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>239.4866237999594</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3803,7 +3803,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F43" t="n">
-        <v>89.94326605921938</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>92.084305103337</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>171.8594389464411</v>
       </c>
     </row>
     <row r="44">
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C46" t="n">
         <v>69.56210087052287</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010739</v>
+        <v>93.13769105450146</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846421</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092326</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -4192,10 +4192,10 @@
         <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>196.6598613601169</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609322</v>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1549.631062263683</v>
+        <v>1430.616956285767</v>
       </c>
       <c r="C11" t="n">
-        <v>1549.631062263683</v>
+        <v>1078.55992437224</v>
       </c>
       <c r="D11" t="n">
-        <v>1549.631062263683</v>
+        <v>737.1997107923746</v>
       </c>
       <c r="E11" t="n">
-        <v>1180.748294692323</v>
+        <v>737.1997107923746</v>
       </c>
       <c r="F11" t="n">
-        <v>786.6678749296007</v>
+        <v>737.1997107923746</v>
       </c>
       <c r="G11" t="n">
-        <v>387.8686096807744</v>
+        <v>338.4004455435481</v>
       </c>
       <c r="H11" t="n">
-        <v>100.7149507052299</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I11" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M11" t="n">
         <v>1220.470313923562</v>
@@ -5069,22 +5069,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T11" t="n">
-        <v>2370.499172032864</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U11" t="n">
-        <v>2370.499172032864</v>
+        <v>2509.408328515161</v>
       </c>
       <c r="V11" t="n">
-        <v>2292.559264249846</v>
+        <v>2509.408328515161</v>
       </c>
       <c r="W11" t="n">
-        <v>2292.559264249846</v>
+        <v>2173.545158271932</v>
       </c>
       <c r="X11" t="n">
-        <v>2292.559264249846</v>
+        <v>2173.545158271932</v>
       </c>
       <c r="Y11" t="n">
-        <v>1919.32541730092</v>
+        <v>1800.311311323004</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I12" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J12" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K12" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L12" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M12" t="n">
-        <v>1227.201367341571</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N12" t="n">
-        <v>1614.486495938516</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O12" t="n">
-        <v>1967.526114878148</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P12" t="n">
-        <v>2214.708848710445</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q12" t="n">
         <v>2538.001278676482</v>
@@ -5151,16 +5151,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V12" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y12" t="n">
         <v>1099.519478116707</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>487.5696185193123</v>
+        <v>411.7055657013592</v>
       </c>
       <c r="C13" t="n">
-        <v>335.5389206182904</v>
+        <v>259.6748678003369</v>
       </c>
       <c r="D13" t="n">
-        <v>202.3277662328397</v>
+        <v>259.6748678003369</v>
       </c>
       <c r="E13" t="n">
-        <v>202.3277662328397</v>
+        <v>259.6748678003369</v>
       </c>
       <c r="F13" t="n">
-        <v>202.3277662328397</v>
+        <v>259.6748678003369</v>
       </c>
       <c r="G13" t="n">
-        <v>51.2467865680031</v>
+        <v>108.5938881355002</v>
       </c>
       <c r="H13" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I13" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J13" t="n">
-        <v>93.28502542797182</v>
+        <v>93.2850254279717</v>
       </c>
       <c r="K13" t="n">
-        <v>281.5446030517472</v>
+        <v>281.5446030517469</v>
       </c>
       <c r="L13" t="n">
-        <v>573.3448475938729</v>
+        <v>573.3448475938724</v>
       </c>
       <c r="M13" t="n">
-        <v>890.4957242090582</v>
+        <v>890.4957242090572</v>
       </c>
       <c r="N13" t="n">
-        <v>1205.934053620072</v>
+        <v>1205.934053620071</v>
       </c>
       <c r="O13" t="n">
-        <v>1482.540962248134</v>
+        <v>1482.540962248132</v>
       </c>
       <c r="P13" t="n">
-        <v>1698.096643294973</v>
+        <v>1698.096643294971</v>
       </c>
       <c r="Q13" t="n">
-        <v>1768.998647073295</v>
+        <v>1768.998647073294</v>
       </c>
       <c r="R13" t="n">
-        <v>1768.998647073295</v>
+        <v>1683.320725615761</v>
       </c>
       <c r="S13" t="n">
-        <v>1680.033249072692</v>
+        <v>1503.597462802507</v>
       </c>
       <c r="T13" t="n">
-        <v>1473.960253294313</v>
+        <v>1297.524467024127</v>
       </c>
       <c r="U13" t="n">
-        <v>1201.747400825035</v>
+        <v>1025.311614554849</v>
       </c>
       <c r="V13" t="n">
-        <v>963.9683976460333</v>
+        <v>787.532611375847</v>
       </c>
       <c r="W13" t="n">
-        <v>691.4567126359575</v>
+        <v>787.532611375847</v>
       </c>
       <c r="X13" t="n">
-        <v>691.4567126359575</v>
+        <v>576.4485455047143</v>
       </c>
       <c r="Y13" t="n">
-        <v>487.5696185193123</v>
+        <v>576.4485455047143</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1584.98077385971</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="C14" t="n">
-        <v>1263.467889867372</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D14" t="n">
-        <v>1047.805172923807</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
         <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822731</v>
+        <v>684.2689010822729</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
         <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V14" t="n">
-        <v>2898.155827638544</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W14" t="n">
-        <v>2592.836805316503</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X14" t="n">
-        <v>2266.820680003497</v>
+        <v>2067.983698717765</v>
       </c>
       <c r="Y14" t="n">
-        <v>1924.130980975759</v>
+        <v>1725.293999690027</v>
       </c>
     </row>
     <row r="15">
@@ -5346,16 +5346,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052938</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254602</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611978</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E16" t="n">
-        <v>434.849232726878</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770409</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G16" t="n">
-        <v>215.155714499833</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657646</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
         <v>771.6978860337114</v>
@@ -5455,19 +5455,19 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
         <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C17" t="n">
         <v>1440.850850103805</v>
@@ -5498,10 +5498,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307332</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G17" t="n">
         <v>265.4242822495729</v>
@@ -5513,22 +5513,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
@@ -5549,16 +5549,16 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W17" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X17" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y17" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.2593958170929</v>
+        <v>552.4050786964423</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630293</v>
+        <v>482.1403303423787</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245369</v>
+        <v>430.6951255038863</v>
       </c>
       <c r="E19" t="n">
-        <v>231.3077836159871</v>
+        <v>381.4534664953365</v>
       </c>
       <c r="F19" t="n">
-        <v>183.08927069192</v>
+        <v>333.2349535712694</v>
       </c>
       <c r="G19" t="n">
-        <v>114.0578686404823</v>
+        <v>264.2035515198317</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5698,25 +5698,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1744.44964124669</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1522.683025816216</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U19" t="n">
         <v>1332.251593515703</v>
       </c>
       <c r="V19" t="n">
-        <v>1077.567105309816</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W19" t="n">
-        <v>886.821369846699</v>
+        <v>985.4928044205427</v>
       </c>
       <c r="X19" t="n">
-        <v>757.503253522525</v>
+        <v>757.5032535225254</v>
       </c>
       <c r="Y19" t="n">
-        <v>536.7106743789949</v>
+        <v>635.3821089528386</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C20" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D20" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G20" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
@@ -5771,31 +5771,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T20" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U20" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V20" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W20" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X20" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y20" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5890,7 +5890,7 @@
         <v>430.6660820368726</v>
       </c>
       <c r="D22" t="n">
-        <v>280.5494426245369</v>
+        <v>379.2208771983802</v>
       </c>
       <c r="E22" t="n">
         <v>231.3077836159871</v>
@@ -5902,10 +5902,10 @@
         <v>114.0578686404823</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5932,19 +5932,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1884.661277114358</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1791.646827515028</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1569.880212084554</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U22" t="n">
-        <v>1379.448779784041</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V22" t="n">
-        <v>1124.764291578154</v>
+        <v>1026.092857004311</v>
       </c>
       <c r="W22" t="n">
         <v>835.3471215411932</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218343</v>
@@ -6099,7 +6099,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6108,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.9279421464341</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C25" t="n">
-        <v>626.6631937923705</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D25" t="n">
-        <v>476.5465543800348</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E25" t="n">
-        <v>427.304895371485</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F25" t="n">
-        <v>379.086382447418</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218343</v>
@@ -6169,28 +6169,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1883.31551972217</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1790.30107012284</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T25" t="n">
-        <v>1568.534454692365</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U25" t="n">
-        <v>1378.103022391852</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V25" t="n">
-        <v>1222.089968759809</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W25" t="n">
-        <v>1031.344233296691</v>
+        <v>976.6518270891711</v>
       </c>
       <c r="X25" t="n">
-        <v>902.0261169725172</v>
+        <v>748.6622761911538</v>
       </c>
       <c r="Y25" t="n">
-        <v>779.9049724028305</v>
+        <v>527.8696970476236</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1817.404981210794</v>
+        <v>1817.404981210791</v>
       </c>
       <c r="C26" t="n">
-        <v>1530.20841381734</v>
+        <v>1530.208413817338</v>
       </c>
       <c r="D26" t="n">
-        <v>1253.708664757548</v>
+        <v>1253.708664757546</v>
       </c>
       <c r="E26" t="n">
-        <v>949.6863617062621</v>
+        <v>949.6863617062609</v>
       </c>
       <c r="F26" t="n">
-        <v>620.466406463613</v>
+        <v>620.4664064636117</v>
       </c>
       <c r="G26" t="n">
-        <v>287.1599058555678</v>
+        <v>287.1599058555674</v>
       </c>
       <c r="H26" t="n">
-        <v>71.34225501129342</v>
+        <v>71.34225501129332</v>
       </c>
       <c r="I26" t="n">
-        <v>71.34225501129342</v>
+        <v>71.34225501129332</v>
       </c>
       <c r="J26" t="n">
-        <v>260.2213859703189</v>
+        <v>260.2213859703187</v>
       </c>
       <c r="K26" t="n">
-        <v>594.0407596601653</v>
+        <v>594.0407596601652</v>
       </c>
       <c r="L26" t="n">
         <v>1045.074972908574</v>
@@ -6239,37 +6239,37 @@
         <v>2125.385694639281</v>
       </c>
       <c r="O26" t="n">
-        <v>2654.843115141702</v>
+        <v>2628.358165518618</v>
       </c>
       <c r="P26" t="n">
-        <v>3049.61748149888</v>
+        <v>3023.132531875796</v>
       </c>
       <c r="Q26" t="n">
-        <v>3508.095684007868</v>
+        <v>3443.036428333611</v>
       </c>
       <c r="R26" t="n">
-        <v>3567.112750564671</v>
+        <v>3567.112750564666</v>
       </c>
       <c r="S26" t="n">
-        <v>3538.588031638724</v>
+        <v>3538.58803163872</v>
       </c>
       <c r="T26" t="n">
-        <v>3414.376233569905</v>
+        <v>3414.376233569901</v>
       </c>
       <c r="U26" t="n">
-        <v>3242.6117063907</v>
+        <v>3242.611706390696</v>
       </c>
       <c r="V26" t="n">
-        <v>2993.314768594088</v>
+        <v>2993.314768594084</v>
       </c>
       <c r="W26" t="n">
-        <v>2722.312062870932</v>
+        <v>2722.312062870928</v>
       </c>
       <c r="X26" t="n">
-        <v>2430.612254156811</v>
+        <v>2430.612254156807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2122.238871727957</v>
+        <v>2122.238871727955</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>946.3739930602185</v>
+        <v>946.3739930602186</v>
       </c>
       <c r="C27" t="n">
-        <v>771.9209637790915</v>
+        <v>771.9209637790916</v>
       </c>
       <c r="D27" t="n">
-        <v>622.9865541178402</v>
+        <v>622.9865541178403</v>
       </c>
       <c r="E27" t="n">
-        <v>463.7490991123847</v>
+        <v>463.7490991123848</v>
       </c>
       <c r="F27" t="n">
         <v>317.2145411392697</v>
@@ -6300,16 +6300,16 @@
         <v>90.34954660975535</v>
       </c>
       <c r="I27" t="n">
-        <v>71.34225501129342</v>
+        <v>71.34225501129332</v>
       </c>
       <c r="J27" t="n">
-        <v>165.0195245019108</v>
+        <v>165.0195245019107</v>
       </c>
       <c r="K27" t="n">
-        <v>403.2837234822579</v>
+        <v>403.2837234822578</v>
       </c>
       <c r="L27" t="n">
-        <v>769.9818837949233</v>
+        <v>769.9818837949232</v>
       </c>
       <c r="M27" t="n">
         <v>1217.258209017239</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>524.0821721922082</v>
+        <v>701.1001557551202</v>
       </c>
       <c r="C28" t="n">
-        <v>436.9119388112597</v>
+        <v>613.929922374172</v>
       </c>
       <c r="D28" t="n">
-        <v>368.5612489458824</v>
+        <v>545.5792325087949</v>
       </c>
       <c r="E28" t="n">
-        <v>302.4141049104478</v>
+        <v>479.4320884733605</v>
       </c>
       <c r="F28" t="n">
-        <v>237.2901069594959</v>
+        <v>400.8220060534126</v>
       </c>
       <c r="G28" t="n">
-        <v>151.3532198811733</v>
+        <v>233.1191694281315</v>
       </c>
       <c r="H28" t="n">
-        <v>86.90198264598961</v>
+        <v>86.90198264598928</v>
       </c>
       <c r="I28" t="n">
-        <v>71.34225501129342</v>
+        <v>71.34225501129332</v>
       </c>
       <c r="J28" t="n">
-        <v>116.464887458229</v>
+        <v>116.4648874582289</v>
       </c>
       <c r="K28" t="n">
-        <v>320.4520704071053</v>
+        <v>320.4520704071052</v>
       </c>
       <c r="L28" t="n">
-        <v>637.0118688556015</v>
+        <v>637.0118688556013</v>
       </c>
       <c r="M28" t="n">
-        <v>981.1689144551506</v>
+        <v>981.1689144551503</v>
       </c>
       <c r="N28" t="n">
         <v>1322.577291161015</v>
       </c>
       <c r="O28" t="n">
-        <v>1621.906890081429</v>
+        <v>1621.906890081428</v>
       </c>
       <c r="P28" t="n">
         <v>1854.514390515088</v>
@@ -6415,19 +6415,19 @@
         <v>1674.139578462359</v>
       </c>
       <c r="U28" t="n">
-        <v>1385.036711588002</v>
+        <v>1466.802661134961</v>
       </c>
       <c r="V28" t="n">
-        <v>1212.118172929074</v>
+        <v>1293.884122476033</v>
       </c>
       <c r="W28" t="n">
-        <v>922.7010028921131</v>
+        <v>1086.232901986031</v>
       </c>
       <c r="X28" t="n">
-        <v>762.9913170720611</v>
+        <v>940.0093006349726</v>
       </c>
       <c r="Y28" t="n">
-        <v>623.9646874754894</v>
+        <v>800.9826710384012</v>
       </c>
     </row>
     <row r="29">
@@ -6446,10 +6446,10 @@
         <v>1384.612155848356</v>
       </c>
       <c r="E29" t="n">
-        <v>1050.045704875881</v>
+        <v>1050.045704875882</v>
       </c>
       <c r="F29" t="n">
-        <v>690.281601712044</v>
+        <v>690.2816017120442</v>
       </c>
       <c r="G29" t="n">
         <v>326.43095318281</v>
@@ -6461,22 +6461,22 @@
         <v>80.06915441734725</v>
       </c>
       <c r="J29" t="n">
-        <v>436.3539343967258</v>
+        <v>268.9482853763727</v>
       </c>
       <c r="K29" t="n">
-        <v>948.4817992494785</v>
+        <v>602.7676590662193</v>
       </c>
       <c r="L29" t="n">
-        <v>1399.516012497887</v>
+        <v>1053.801872314628</v>
       </c>
       <c r="M29" t="n">
-        <v>1933.047917169812</v>
+        <v>2032.352175144457</v>
       </c>
       <c r="N29" t="n">
-        <v>2479.826734228594</v>
+        <v>2798.407455318362</v>
       </c>
       <c r="O29" t="n">
-        <v>2982.799205107931</v>
+        <v>3301.379926197699</v>
       </c>
       <c r="P29" t="n">
         <v>3696.154292554877</v>
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>955.1008924662724</v>
+        <v>955.1008924662725</v>
       </c>
       <c r="C30" t="n">
-        <v>780.6478631851454</v>
+        <v>780.6478631851455</v>
       </c>
       <c r="D30" t="n">
         <v>631.7134535238943</v>
@@ -6528,25 +6528,25 @@
         <v>472.4759985184387</v>
       </c>
       <c r="F30" t="n">
-        <v>325.9414405453238</v>
+        <v>325.9414405453236</v>
       </c>
       <c r="G30" t="n">
-        <v>189.5783403779423</v>
+        <v>189.5783403779418</v>
       </c>
       <c r="H30" t="n">
-        <v>99.07644601580967</v>
+        <v>99.0764460158093</v>
       </c>
       <c r="I30" t="n">
         <v>80.06915441734725</v>
       </c>
       <c r="J30" t="n">
-        <v>173.7464239079644</v>
+        <v>173.7464239079646</v>
       </c>
       <c r="K30" t="n">
-        <v>412.0106228883118</v>
+        <v>412.0106228883117</v>
       </c>
       <c r="L30" t="n">
-        <v>778.7087832009769</v>
+        <v>778.7087832009771</v>
       </c>
       <c r="M30" t="n">
         <v>1225.985108423293</v>
@@ -6573,7 +6573,7 @@
         <v>2256.385340282356</v>
       </c>
       <c r="U30" t="n">
-        <v>2028.317493416772</v>
+        <v>2028.317493416771</v>
       </c>
       <c r="V30" t="n">
         <v>1793.165385185029</v>
@@ -6604,10 +6604,10 @@
         <v>530.0088879578784</v>
       </c>
       <c r="E31" t="n">
-        <v>433.3175960012553</v>
+        <v>433.3175960012554</v>
       </c>
       <c r="F31" t="n">
-        <v>337.649450129115</v>
+        <v>337.6494501291151</v>
       </c>
       <c r="G31" t="n">
         <v>221.168415129604</v>
@@ -6619,19 +6619,19 @@
         <v>80.06915441734725</v>
       </c>
       <c r="J31" t="n">
-        <v>175.3942746377001</v>
+        <v>125.1917868642828</v>
       </c>
       <c r="K31" t="n">
-        <v>429.5839453599937</v>
+        <v>379.3814575865764</v>
       </c>
       <c r="L31" t="n">
-        <v>796.3462315819071</v>
+        <v>746.1437438084897</v>
       </c>
       <c r="M31" t="n">
-        <v>1190.705764954873</v>
+        <v>1100.774245943641</v>
       </c>
       <c r="N31" t="n">
-        <v>1542.587598196339</v>
+        <v>1492.385110422922</v>
       </c>
       <c r="O31" t="n">
         <v>1841.917197116753</v>
@@ -6652,7 +6652,7 @@
         <v>1902.922417280952</v>
       </c>
       <c r="U31" t="n">
-        <v>1665.041352032365</v>
+        <v>1665.041352032366</v>
       </c>
       <c r="V31" t="n">
         <v>1461.578665452249</v>
@@ -6664,7 +6664,7 @@
         <v>1046.615547768811</v>
       </c>
       <c r="Y31" t="n">
-        <v>877.0447702510505</v>
+        <v>877.0447702510506</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1691.656052829336</v>
       </c>
       <c r="D32" t="n">
-        <v>1384.612155848355</v>
+        <v>1384.612155848356</v>
       </c>
       <c r="E32" t="n">
         <v>1050.045704875881</v>
       </c>
       <c r="F32" t="n">
-        <v>690.2816017120433</v>
+        <v>690.2816017120438</v>
       </c>
       <c r="G32" t="n">
-        <v>326.4309531828101</v>
+        <v>326.43095318281</v>
       </c>
       <c r="H32" t="n">
         <v>80.06915441734725</v>
@@ -6701,19 +6701,19 @@
         <v>268.9482853763727</v>
       </c>
       <c r="K32" t="n">
-        <v>923.6716175116723</v>
+        <v>673.2307028219202</v>
       </c>
       <c r="L32" t="n">
-        <v>1374.705830760081</v>
+        <v>1124.264916070329</v>
       </c>
       <c r="M32" t="n">
-        <v>1908.237735432006</v>
+        <v>1657.796820742254</v>
       </c>
       <c r="N32" t="n">
-        <v>2455.016552490788</v>
+        <v>2204.575637801036</v>
       </c>
       <c r="O32" t="n">
-        <v>2957.989023370125</v>
+        <v>2707.548108680373</v>
       </c>
       <c r="P32" t="n">
         <v>3420.903196127319</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>955.1008924662726</v>
+        <v>955.1008924662725</v>
       </c>
       <c r="C33" t="n">
-        <v>780.6478631851456</v>
+        <v>780.6478631851455</v>
       </c>
       <c r="D33" t="n">
-        <v>631.7134535238944</v>
+        <v>631.7134535238943</v>
       </c>
       <c r="E33" t="n">
-        <v>472.4759985184389</v>
+        <v>472.4759985184387</v>
       </c>
       <c r="F33" t="n">
-        <v>325.9414405453239</v>
+        <v>325.9414405453236</v>
       </c>
       <c r="G33" t="n">
-        <v>189.578340377942</v>
+        <v>189.5783403779418</v>
       </c>
       <c r="H33" t="n">
-        <v>99.07644601580949</v>
+        <v>99.0764460158093</v>
       </c>
       <c r="I33" t="n">
         <v>80.06915441734725</v>
@@ -6810,7 +6810,7 @@
         <v>2256.385340282356</v>
       </c>
       <c r="U33" t="n">
-        <v>2028.317493416772</v>
+        <v>2028.317493416771</v>
       </c>
       <c r="V33" t="n">
         <v>1793.165385185029</v>
@@ -6819,10 +6819,10 @@
         <v>1538.928028456827</v>
       </c>
       <c r="X33" t="n">
-        <v>1331.076528251295</v>
+        <v>1331.076528251294</v>
       </c>
       <c r="Y33" t="n">
-        <v>1123.316229486341</v>
+        <v>1123.31622948634</v>
       </c>
     </row>
     <row r="34">
@@ -6832,61 +6832,61 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>746.6181070465814</v>
+        <v>746.6181070465809</v>
       </c>
       <c r="C34" t="n">
-        <v>628.9037257444445</v>
+        <v>628.903725744444</v>
       </c>
       <c r="D34" t="n">
-        <v>530.0088879578788</v>
+        <v>530.0088879578784</v>
       </c>
       <c r="E34" t="n">
-        <v>433.3175960012556</v>
+        <v>433.3175960012554</v>
       </c>
       <c r="F34" t="n">
-        <v>337.6494501291152</v>
+        <v>337.6494501291151</v>
       </c>
       <c r="G34" t="n">
-        <v>221.1684151296042</v>
+        <v>221.168415129604</v>
       </c>
       <c r="H34" t="n">
-        <v>126.1730299732319</v>
+        <v>126.1730299732318</v>
       </c>
       <c r="I34" t="n">
         <v>80.06915441734725</v>
       </c>
       <c r="J34" t="n">
-        <v>135.6652433998856</v>
+        <v>175.3942746377</v>
       </c>
       <c r="K34" t="n">
-        <v>389.8549141221791</v>
+        <v>429.5839453599936</v>
       </c>
       <c r="L34" t="n">
-        <v>756.6172003440925</v>
+        <v>796.346231581907</v>
       </c>
       <c r="M34" t="n">
-        <v>1150.976733717059</v>
+        <v>1190.705764954873</v>
       </c>
       <c r="N34" t="n">
         <v>1542.58759819634</v>
       </c>
       <c r="O34" t="n">
-        <v>1892.119684890171</v>
+        <v>1841.917197116753</v>
       </c>
       <c r="P34" t="n">
-        <v>2124.72718532383</v>
+        <v>2124.727185323829</v>
       </c>
       <c r="Q34" t="n">
-        <v>2252.539969249762</v>
+        <v>2252.539969249761</v>
       </c>
       <c r="R34" t="n">
-        <v>2213.93131363306</v>
+        <v>2213.931313633059</v>
       </c>
       <c r="S34" t="n">
-        <v>2073.467231085657</v>
+        <v>2073.467231085656</v>
       </c>
       <c r="T34" t="n">
-        <v>1902.922417280953</v>
+        <v>1902.922417280952</v>
       </c>
       <c r="U34" t="n">
         <v>1665.041352032366</v>
@@ -6895,13 +6895,13 @@
         <v>1461.578665452249</v>
       </c>
       <c r="W34" t="n">
-        <v>1223.383297041059</v>
+        <v>1223.383297041058</v>
       </c>
       <c r="X34" t="n">
         <v>1046.615547768811</v>
       </c>
       <c r="Y34" t="n">
-        <v>877.0447702510511</v>
+        <v>877.0447702510506</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6926,13 +6926,13 @@
         <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
@@ -6953,16 +6953,16 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668175</v>
@@ -6977,7 +6977,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7005,22 +7005,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.4050786964424</v>
+        <v>696.9279421464339</v>
       </c>
       <c r="C37" t="n">
-        <v>482.1403303423789</v>
+        <v>626.6631937923704</v>
       </c>
       <c r="D37" t="n">
-        <v>332.0236909300431</v>
+        <v>575.217988953878</v>
       </c>
       <c r="E37" t="n">
-        <v>282.7820319214934</v>
+        <v>525.9763299453283</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>379.0863824474179</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.449641246691</v>
+        <v>1790.301070122839</v>
       </c>
       <c r="T37" t="n">
-        <v>1621.35446039006</v>
+        <v>1667.205889266208</v>
       </c>
       <c r="U37" t="n">
-        <v>1430.923028089547</v>
+        <v>1476.774456965695</v>
       </c>
       <c r="V37" t="n">
-        <v>1274.909974457503</v>
+        <v>1222.089968759808</v>
       </c>
       <c r="W37" t="n">
-        <v>985.4928044205428</v>
+        <v>1031.344233296691</v>
       </c>
       <c r="X37" t="n">
-        <v>856.1746880963689</v>
+        <v>902.026116972517</v>
       </c>
       <c r="Y37" t="n">
-        <v>635.3821089528387</v>
+        <v>779.9049724028303</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218343</v>
@@ -7172,22 +7172,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296687</v>
@@ -7214,10 +7214,10 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>444.8926667912278</v>
+        <v>599.6022649647792</v>
       </c>
       <c r="C40" t="n">
-        <v>374.6279184371643</v>
+        <v>529.3375166107157</v>
       </c>
       <c r="D40" t="n">
-        <v>323.182713598672</v>
+        <v>477.8923117722234</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159868</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F40" t="n">
         <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218343</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758176</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663015</v>
+        <v>934.0185561150363</v>
       </c>
       <c r="X40" t="n">
-        <v>847.3337107649977</v>
+        <v>804.7004397908623</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.5411316214676</v>
+        <v>682.5792952211756</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464963</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307321</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495719</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218252</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7421,7 +7421,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7430,31 +7430,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7479,16 +7479,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.5641013650705</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>473.2993530110069</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D43" t="n">
-        <v>421.8541481725146</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E43" t="n">
-        <v>273.9410545901214</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V43" t="n">
-        <v>1266.068997126132</v>
+        <v>978.8956707359731</v>
       </c>
       <c r="W43" t="n">
-        <v>976.6518270891711</v>
+        <v>788.1499352728558</v>
       </c>
       <c r="X43" t="n">
-        <v>847.333710764997</v>
+        <v>658.8318189486819</v>
       </c>
       <c r="Y43" t="n">
-        <v>626.5411316214669</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="44">
@@ -7725,13 +7725,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>599.6022649647792</v>
+        <v>839.5784050866014</v>
       </c>
       <c r="C46" t="n">
-        <v>529.3375166107157</v>
+        <v>769.3136567325379</v>
       </c>
       <c r="D46" t="n">
-        <v>477.8923117722234</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E46" t="n">
-        <v>428.6506527636736</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F46" t="n">
-        <v>281.7607052657633</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G46" t="n">
         <v>212.7293032143257</v>
@@ -7840,16 +7840,16 @@
         <v>1520.753485332019</v>
       </c>
       <c r="V46" t="n">
-        <v>1322.10716072584</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W46" t="n">
-        <v>1032.68999068888</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X46" t="n">
-        <v>903.3718743647057</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y46" t="n">
-        <v>781.250729795019</v>
+        <v>922.5554353429977</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>131.3266008502584</v>
+        <v>131.3266008502583</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5735032339034</v>
+        <v>145.5735032339032</v>
       </c>
       <c r="L8" t="n">
-        <v>143.3222963241411</v>
+        <v>143.3222963241407</v>
       </c>
       <c r="M8" t="n">
-        <v>127.4843391590413</v>
+        <v>127.4843391590409</v>
       </c>
       <c r="N8" t="n">
-        <v>124.8867565435361</v>
+        <v>124.8867565435357</v>
       </c>
       <c r="O8" t="n">
-        <v>131.3969836885922</v>
+        <v>131.3969836885919</v>
       </c>
       <c r="P8" t="n">
-        <v>146.9937814186823</v>
+        <v>146.993781418682</v>
       </c>
       <c r="Q8" t="n">
-        <v>159.0455481358336</v>
+        <v>159.0455481358334</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>97.2251500083153</v>
+        <v>97.2251500083152</v>
       </c>
       <c r="K9" t="n">
-        <v>87.22899975934934</v>
+        <v>87.22899975934916</v>
       </c>
       <c r="L9" t="n">
-        <v>70.49970929235337</v>
+        <v>70.49970929235315</v>
       </c>
       <c r="M9" t="n">
-        <v>62.7174433945145</v>
+        <v>62.71744339451425</v>
       </c>
       <c r="N9" t="n">
-        <v>49.82320071600685</v>
+        <v>49.82320071600658</v>
       </c>
       <c r="O9" t="n">
-        <v>68.02273247723828</v>
+        <v>68.02273247723804</v>
       </c>
       <c r="P9" t="n">
-        <v>74.12258954369736</v>
+        <v>74.12258954369716</v>
       </c>
       <c r="Q9" t="n">
-        <v>99.97241887202685</v>
+        <v>99.97241887202672</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>98.48403492067831</v>
+        <v>98.4840349206782</v>
       </c>
       <c r="L10" t="n">
-        <v>95.81778136510661</v>
+        <v>95.81778136510647</v>
       </c>
       <c r="M10" t="n">
-        <v>97.73522084140117</v>
+        <v>97.73522084140103</v>
       </c>
       <c r="N10" t="n">
-        <v>87.47440088425944</v>
+        <v>87.4744008842593</v>
       </c>
       <c r="O10" t="n">
-        <v>101.315038992627</v>
+        <v>101.3150389926269</v>
       </c>
       <c r="P10" t="n">
-        <v>105.9470348694842</v>
+        <v>105.9470348694841</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>21.18099370047497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>26.75247436675158</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>173.3510451536688</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>180.1095870332385</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>221.4913768839627</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>71.17479167242527</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>68.8280872727434</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-4.405364961712621e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.71693444084615</v>
+        <v>14.71693444084614</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>348.5364615943915</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>337.9466114440669</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>365.193939895646</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>390.1396155650957</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>48.97348249585469</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>106.7157852221785</v>
+        <v>106.7157852221786</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>189.9217548036179</v>
       </c>
       <c r="U11" t="n">
-        <v>234.308819951846</v>
+        <v>181.9071300657017</v>
       </c>
       <c r="V11" t="n">
-        <v>233.8553195883314</v>
+        <v>311.0158282935191</v>
       </c>
       <c r="W11" t="n">
-        <v>332.504538540797</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>352.994670501853</v>
+        <v>352.9946705018532</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.0955500053213</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>131.8790428415965</v>
       </c>
       <c r="E13" t="n">
-        <v>129.6975324699532</v>
+        <v>129.6975324699534</v>
       </c>
       <c r="F13" t="n">
-        <v>128.6846178463152</v>
+        <v>128.6846178463154</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>130.5150789785129</v>
+        <v>73.74144842669097</v>
       </c>
       <c r="I13" t="n">
-        <v>88.06016502728455</v>
+        <v>88.06016502728477</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.82114224295761</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>89.85028616452455</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.7865681599752</v>
       </c>
       <c r="X13" t="n">
-        <v>208.9732252124211</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>201.848223175479</v>
       </c>
     </row>
     <row r="14">
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>94.20181522796186</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>83.92851037866805</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
         <v>9.003997547551989e-13</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23975,13 +23975,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1448405.933478335</v>
+        <v>1448405.933478334</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1101008.190779382</v>
+        <v>1101008.190779381</v>
       </c>
     </row>
     <row r="6">
@@ -26314,19 +26314,19 @@
         <v>61445.72540377788</v>
       </c>
       <c r="C2" t="n">
-        <v>61445.72540377786</v>
+        <v>61445.72540377788</v>
       </c>
       <c r="D2" t="n">
-        <v>61449.22264813138</v>
+        <v>61449.22264813139</v>
       </c>
       <c r="E2" t="n">
-        <v>48112.70968866064</v>
+        <v>48112.70968866063</v>
       </c>
       <c r="F2" t="n">
-        <v>57339.8257417382</v>
+        <v>57339.82574173819</v>
       </c>
       <c r="G2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.1327398213</v>
       </c>
       <c r="H2" t="n">
         <v>61578.13273982128</v>
@@ -26338,22 +26338,22 @@
         <v>61578.13273982122</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982128</v>
       </c>
       <c r="N2" t="n">
         <v>61578.13273982127</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982129</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982127</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>124795.3760734342</v>
+        <v>124795.3760734346</v>
       </c>
       <c r="E3" t="n">
-        <v>838013.5267728495</v>
+        <v>838013.526772849</v>
       </c>
       <c r="F3" t="n">
-        <v>201946.5094125043</v>
+        <v>201946.5094125045</v>
       </c>
       <c r="G3" t="n">
-        <v>40567.66688760986</v>
+        <v>40567.66688760985</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15797.20972990818</v>
+        <v>15797.20972990785</v>
       </c>
       <c r="K3" t="n">
-        <v>28075.30807921576</v>
+        <v>28075.30807921609</v>
       </c>
       <c r="L3" t="n">
-        <v>40567.6668876098</v>
+        <v>40567.66688760985</v>
       </c>
       <c r="M3" t="n">
-        <v>154985.5606178477</v>
+        <v>154985.5606178476</v>
       </c>
       <c r="N3" t="n">
-        <v>46736.14309555117</v>
+        <v>46736.14309555123</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>413954.9178218752</v>
+        <v>413954.9178218751</v>
       </c>
       <c r="E4" t="n">
-        <v>43925.75094234095</v>
+        <v>43925.75094234075</v>
       </c>
       <c r="F4" t="n">
-        <v>61265.27723866006</v>
+        <v>61265.27723866007</v>
       </c>
       <c r="G4" t="n">
         <v>93403.78684820628</v>
       </c>
       <c r="H4" t="n">
-        <v>93403.78684820628</v>
+        <v>93403.78684820626</v>
       </c>
       <c r="I4" t="n">
         <v>93403.78684820628</v>
       </c>
       <c r="J4" t="n">
-        <v>93253.28399667751</v>
+        <v>93253.28399667742</v>
       </c>
       <c r="K4" t="n">
         <v>93078.51962334471</v>
       </c>
       <c r="L4" t="n">
-        <v>93078.51962334466</v>
+        <v>93078.51962334468</v>
       </c>
       <c r="M4" t="n">
+        <v>93403.78684820631</v>
+      </c>
+      <c r="N4" t="n">
         <v>93403.78684820633</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>93403.78684820636</v>
+      </c>
+      <c r="P4" t="n">
         <v>93403.78684820632</v>
-      </c>
-      <c r="O4" t="n">
-        <v>93403.78684820628</v>
-      </c>
-      <c r="P4" t="n">
-        <v>93403.78684820633</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>36804.26362110015</v>
+        <v>36804.26362110016</v>
       </c>
       <c r="E5" t="n">
-        <v>60717.18738836264</v>
+        <v>60717.18738836262</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178176</v>
@@ -26485,13 +26485,13 @@
         <v>82518.59730624985</v>
       </c>
       <c r="H5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="I5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="J5" t="n">
-        <v>84782.48767785552</v>
+        <v>84782.48767785546</v>
       </c>
       <c r="K5" t="n">
         <v>88872.7934145859</v>
@@ -26500,7 +26500,7 @@
         <v>88872.7934145859</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624987</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-435332.6056983318</v>
+        <v>-435337.0192762</v>
       </c>
       <c r="C6" t="n">
-        <v>-435332.6056983319</v>
+        <v>-435337.0192762</v>
       </c>
       <c r="D6" t="n">
-        <v>-514105.3348682782</v>
+        <v>-514109.6318713348</v>
       </c>
       <c r="E6" t="n">
-        <v>-894543.7554148923</v>
+        <v>-894992.6028499303</v>
       </c>
       <c r="F6" t="n">
-        <v>-284127.454231208</v>
+        <v>-284268.7311311442</v>
       </c>
       <c r="G6" t="n">
         <v>-154911.9183022447</v>
@@ -26543,25 +26543,25 @@
         <v>-114344.2514146348</v>
       </c>
       <c r="J6" t="n">
-        <v>-132254.84866462</v>
+        <v>-132254.8486646195</v>
       </c>
       <c r="K6" t="n">
-        <v>-148448.4883773251</v>
+        <v>-148448.4883773254</v>
       </c>
       <c r="L6" t="n">
-        <v>-160940.8471857191</v>
+        <v>-160940.8471857192</v>
       </c>
       <c r="M6" t="n">
-        <v>-269329.8120324826</v>
+        <v>-269329.8120324825</v>
       </c>
       <c r="N6" t="n">
-        <v>-161080.3945101861</v>
+        <v>-161080.3945101862</v>
       </c>
       <c r="O6" t="n">
-        <v>-114344.2514146348</v>
+        <v>-114344.2514146349</v>
       </c>
       <c r="P6" t="n">
-        <v>-114344.251414635</v>
+        <v>-114344.2514146349</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
         <v>97.68472022810488</v>
@@ -26707,22 +26707,22 @@
         <v>97.68472022810489</v>
       </c>
       <c r="J2" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="K2" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="L2" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P2" t="n">
         <v>97.68472022810496</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>145.7185147293648</v>
+        <v>145.7185147293653</v>
       </c>
       <c r="E3" t="n">
         <v>934.0648921175391</v>
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>891.7781876411677</v>
+        <v>891.7781876411665</v>
       </c>
       <c r="K4" t="n">
         <v>1000.864430216841</v>
@@ -26820,13 +26820,13 @@
         <v>1000.864430216841</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="F2" t="n">
-        <v>30.23870644197652</v>
+        <v>30.23870644197676</v>
       </c>
       <c r="G2" t="n">
-        <v>50.70958360951233</v>
+        <v>50.70958360951231</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>50.70958360951226</v>
+        <v>50.70958360951231</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>145.7185147293648</v>
+        <v>145.7185147293653</v>
       </c>
       <c r="E3" t="n">
-        <v>788.3463773881742</v>
+        <v>788.3463773881738</v>
       </c>
       <c r="F3" t="n">
         <v>155.7118084757592</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="F4" t="n">
         <v>190.816623302254</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>60.37673223887487</v>
+        <v>60.37673223887361</v>
       </c>
       <c r="K4" t="n">
-        <v>109.0862425756728</v>
+        <v>109.0862425756741</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>471.121857285491</v>
+        <v>471.1218572854909</v>
       </c>
       <c r="N4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="K2" t="n">
-        <v>30.23870644197652</v>
+        <v>30.23870644197676</v>
       </c>
       <c r="L2" t="n">
-        <v>50.70958360951233</v>
+        <v>50.70958360951231</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N4" t="n">
         <v>190.816623302254</v>
@@ -27871,7 +27871,7 @@
         <v>333.4754463812059</v>
       </c>
       <c r="I8" t="n">
-        <v>187.891716548883</v>
+        <v>187.8917165488829</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>113.0711655758493</v>
+        <v>113.0711655758492</v>
       </c>
       <c r="S8" t="n">
         <v>195.6710820308869</v>
@@ -27950,7 +27950,7 @@
         <v>109.2083482984393</v>
       </c>
       <c r="I9" t="n">
-        <v>78.60521454362721</v>
+        <v>78.60521454362717</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>80.6975389214272</v>
+        <v>80.69753892142714</v>
       </c>
       <c r="S9" t="n">
-        <v>165.861304029509</v>
+        <v>165.8613040295089</v>
       </c>
       <c r="T9" t="n">
         <v>198.9013766661774</v>
@@ -28032,7 +28032,7 @@
         <v>147.5482315383281</v>
       </c>
       <c r="J10" t="n">
-        <v>74.78126390273393</v>
+        <v>74.78126390273385</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.1585475275603</v>
+        <v>64.15854752756023</v>
       </c>
       <c r="R10" t="n">
         <v>165.4782475435393</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="C11" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="D11" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="E11" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="F11" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="G11" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="H11" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="I11" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="T11" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="U11" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="V11" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="W11" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="X11" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="C13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="D13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="E13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="F13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="G13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="H13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="I13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="J13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="K13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="L13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="M13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="N13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="O13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="P13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="R13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="S13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="T13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="U13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="V13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="W13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="X13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.73643017661602</v>
+        <v>16.73643017661581</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.72521440565436</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C19" t="n">
         <v>97.68472022810488</v>
@@ -28737,58 +28737,58 @@
         <v>97.68472022810488</v>
       </c>
       <c r="H19" t="n">
+        <v>45.3929145873871</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>97.68472022810488</v>
-      </c>
-      <c r="I19" t="n">
-        <v>96.35242040983809</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>97.68472022810488</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>97.68472022810488</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W19" t="n">
         <v>97.68472022810488</v>
       </c>
       <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>97.68472022810488</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28962,10 +28962,10 @@
         <v>97.68472022810488</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>97.68472022810488</v>
@@ -29004,22 +29004,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.7252144056541</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>97.68472022810488</v>
       </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
       <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>46.72521440565396</v>
+      </c>
+      <c r="W22" t="n">
         <v>97.68472022810488</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>97.68472022810488</v>
@@ -29193,13 +29193,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810489</v>
+        <v>55.47778196371181</v>
       </c>
       <c r="C25" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E25" t="n">
         <v>97.68472022810489</v>
@@ -29211,10 +29211,10 @@
         <v>97.68472022810489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>45.39291458738772</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U25" t="n">
         <v>97.68472022810489</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="C26" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="D26" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="E26" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="F26" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="G26" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="H26" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="T26" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="U26" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="V26" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="W26" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="X26" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
     </row>
     <row r="27">
@@ -29430,28 +29430,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="C28" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="D28" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="E28" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="F28" t="n">
-        <v>80.94829005148887</v>
+        <v>67.59706642718277</v>
       </c>
       <c r="G28" t="n">
-        <v>80.94829005148887</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>80.94829005148887</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29478,28 +29478,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="S28" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="T28" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="V28" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="X28" t="n">
-        <v>67.59706642718561</v>
+        <v>80.9482900514891</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.94829005148887</v>
+        <v>80.9482900514891</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="C29" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="D29" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="E29" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="F29" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="G29" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="H29" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="T29" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="U29" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="V29" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="W29" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="X29" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="Y29" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="C31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="D31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="E31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="F31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="G31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="H31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="I31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="J31" t="n">
-        <v>50.70958360951235</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="L31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="M31" t="n">
-        <v>50.70958360951235</v>
+        <v>10.57924902586052</v>
       </c>
       <c r="N31" t="n">
-        <v>10.57924902585984</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="P31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="R31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="S31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="T31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="U31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="V31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="W31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="X31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951234</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="C32" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="D32" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="E32" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="F32" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="G32" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="H32" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="T32" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="U32" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="V32" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="W32" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="X32" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="Y32" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="C34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="D34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="E34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="F34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="G34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="H34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="I34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="J34" t="n">
-        <v>10.57924902586142</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="K34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="L34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="M34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="N34" t="n">
-        <v>50.70958360951228</v>
+        <v>10.57924902586018</v>
       </c>
       <c r="O34" t="n">
-        <v>50.70958360951228</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="Q34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="R34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="S34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="T34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="U34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="V34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="W34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="X34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.70958360951228</v>
+        <v>50.70958360951234</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>46.72521440565345</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810496</v>
+        <v>54.1454821454445</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E40" t="n">
-        <v>55.47778196371081</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>46.7252144056535</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292685</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F43" t="n">
-        <v>55.47778196371186</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>46.72521440565367</v>
       </c>
     </row>
     <row r="44">
@@ -30852,22 +30852,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C46" t="n">
         <v>97.68472022810496</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810496</v>
+        <v>55.4777819637109</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -30912,10 +30912,10 @@
         <v>97.68472022810496</v>
       </c>
       <c r="V46" t="n">
-        <v>55.47778196371107</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X46" t="n">
         <v>97.68472022810496</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5858030742889033</v>
+        <v>0.5858030742889052</v>
       </c>
       <c r="H8" t="n">
-        <v>5.999355734561233</v>
+        <v>5.999355734561252</v>
       </c>
       <c r="I8" t="n">
-        <v>22.58417302152297</v>
+        <v>22.58417302152304</v>
       </c>
       <c r="J8" t="n">
-        <v>49.71930367642786</v>
+        <v>49.71930367642802</v>
       </c>
       <c r="K8" t="n">
-        <v>74.51634781107714</v>
+        <v>74.5163478110774</v>
       </c>
       <c r="L8" t="n">
-        <v>92.44411864584619</v>
+        <v>92.4441186458465</v>
       </c>
       <c r="M8" t="n">
-        <v>102.8618940682315</v>
+        <v>102.8618940682318</v>
       </c>
       <c r="N8" t="n">
-        <v>104.5263070530548</v>
+        <v>104.5263070530552</v>
       </c>
       <c r="O8" t="n">
-        <v>98.70122773309454</v>
+        <v>98.70122773309487</v>
       </c>
       <c r="P8" t="n">
-        <v>84.23921433658722</v>
+        <v>84.23921433658751</v>
       </c>
       <c r="Q8" t="n">
-        <v>63.26014173861585</v>
+        <v>63.26014173861606</v>
       </c>
       <c r="R8" t="n">
-        <v>36.79795236530035</v>
+        <v>36.79795236530047</v>
       </c>
       <c r="S8" t="n">
-        <v>13.3489875553584</v>
+        <v>13.34898755535844</v>
       </c>
       <c r="T8" t="n">
-        <v>2.564352957699676</v>
+        <v>2.564352957699684</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04686424594311225</v>
+        <v>0.04686424594311241</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3134322769650488</v>
+        <v>0.3134322769650499</v>
       </c>
       <c r="H9" t="n">
-        <v>3.027095938057183</v>
+        <v>3.027095938057193</v>
       </c>
       <c r="I9" t="n">
-        <v>10.79141830778787</v>
+        <v>10.7914183077879</v>
       </c>
       <c r="J9" t="n">
-        <v>29.6124766583514</v>
+        <v>29.61247665835149</v>
       </c>
       <c r="K9" t="n">
-        <v>50.61243921500967</v>
+        <v>50.61243921500984</v>
       </c>
       <c r="L9" t="n">
-        <v>68.05467048752081</v>
+        <v>68.05467048752104</v>
       </c>
       <c r="M9" t="n">
-        <v>79.41659052750381</v>
+        <v>79.41659052750407</v>
       </c>
       <c r="N9" t="n">
-        <v>81.51851136732645</v>
+        <v>81.51851136732672</v>
       </c>
       <c r="O9" t="n">
-        <v>74.57351196720616</v>
+        <v>74.5735119672064</v>
       </c>
       <c r="P9" t="n">
-        <v>59.85181787063289</v>
+        <v>59.85181787063308</v>
       </c>
       <c r="Q9" t="n">
-        <v>40.00935521399466</v>
+        <v>40.00935521399479</v>
       </c>
       <c r="R9" t="n">
-        <v>19.46029523121593</v>
+        <v>19.460295231216</v>
       </c>
       <c r="S9" t="n">
-        <v>5.821867074328864</v>
+        <v>5.821867074328884</v>
       </c>
       <c r="T9" t="n">
-        <v>1.263352028644209</v>
+        <v>1.263352028644214</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02062054453717427</v>
+        <v>0.02062054453717434</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2627710921349201</v>
+        <v>0.262771092134921</v>
       </c>
       <c r="H10" t="n">
-        <v>2.336273891890473</v>
+        <v>2.336273891890481</v>
       </c>
       <c r="I10" t="n">
-        <v>7.902243388930146</v>
+        <v>7.902243388930172</v>
       </c>
       <c r="J10" t="n">
-        <v>18.57791621393885</v>
+        <v>18.57791621393891</v>
       </c>
       <c r="K10" t="n">
-        <v>30.52922324985708</v>
+        <v>30.52922324985718</v>
       </c>
       <c r="L10" t="n">
-        <v>39.06689491613168</v>
+        <v>39.06689491613181</v>
       </c>
       <c r="M10" t="n">
-        <v>41.19056310620388</v>
+        <v>41.19056310620402</v>
       </c>
       <c r="N10" t="n">
-        <v>40.21114358097376</v>
+        <v>40.21114358097389</v>
       </c>
       <c r="O10" t="n">
-        <v>37.14149945921582</v>
+        <v>37.14149945921594</v>
       </c>
       <c r="P10" t="n">
-        <v>31.78096917966342</v>
+        <v>31.78096917966352</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.00349572413409</v>
+        <v>22.00349572413416</v>
       </c>
       <c r="R10" t="n">
-        <v>11.81514383363013</v>
+        <v>11.81514383363017</v>
       </c>
       <c r="S10" t="n">
-        <v>4.579383487478561</v>
+        <v>4.579383487478576</v>
       </c>
       <c r="T10" t="n">
-        <v>1.122749211849204</v>
+        <v>1.122749211849208</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01433296866190475</v>
+        <v>0.0143329686619048</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33980,7 +33980,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K12" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L12" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M12" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N12" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O12" t="n">
-        <v>356.6056756965979</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P12" t="n">
         <v>249.6795291235322</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.46286753532195</v>
+        <v>42.46286753532173</v>
       </c>
       <c r="K13" t="n">
-        <v>190.161189518965</v>
+        <v>190.1611895189648</v>
       </c>
       <c r="L13" t="n">
-        <v>294.7477217597229</v>
+        <v>294.7477217597227</v>
       </c>
       <c r="M13" t="n">
-        <v>320.3544208234193</v>
+        <v>320.354420823419</v>
       </c>
       <c r="N13" t="n">
-        <v>318.6245751626404</v>
+        <v>318.6245751626402</v>
       </c>
       <c r="O13" t="n">
-        <v>279.4009178061229</v>
+        <v>279.4009178061227</v>
       </c>
       <c r="P13" t="n">
-        <v>217.7330111584232</v>
+        <v>217.733011158423</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.61818563467003</v>
+        <v>71.6181856346698</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>534.8054752549707</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>424.1453499573883</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>517.3008735886391</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>773.7932122968742</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>96.2880002225786</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>256.757243153832</v>
+        <v>256.7572431538319</v>
       </c>
       <c r="L31" t="n">
         <v>370.4669557797105</v>
       </c>
       <c r="M31" t="n">
-        <v>398.3429630029963</v>
+        <v>358.2126284193444</v>
       </c>
       <c r="N31" t="n">
-        <v>355.4361951934</v>
+        <v>395.5665297770524</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>353.0627138321521</v>
       </c>
       <c r="P31" t="n">
-        <v>285.6666547546229</v>
+        <v>285.6666547546228</v>
       </c>
       <c r="Q31" t="n">
         <v>129.103822147406</v>
@@ -37069,7 +37069,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>408.3660782278258</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37084,7 +37084,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>467.5900734921153</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>56.15766563892764</v>
+        <v>96.28800022257856</v>
       </c>
       <c r="K34" t="n">
-        <v>256.7572431538318</v>
+        <v>256.7572431538319</v>
       </c>
       <c r="L34" t="n">
-        <v>370.4669557797104</v>
+        <v>370.4669557797105</v>
       </c>
       <c r="M34" t="n">
-        <v>398.3429630029961</v>
+        <v>398.3429630029962</v>
       </c>
       <c r="N34" t="n">
-        <v>395.5665297770524</v>
+        <v>355.4361951934002</v>
       </c>
       <c r="O34" t="n">
-        <v>353.062713832152</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451104</v>
+        <v>285.6666547546228</v>
       </c>
       <c r="Q34" t="n">
-        <v>129.1038221474059</v>
+        <v>129.103822147406</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37628,7 +37628,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>9.043271182401276e-13</v>
       </c>
       <c r="J41" t="n">
         <v>190.7870009687126</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
